--- a/build2.7_260206/results/標準/2.7b_data2022_import4_wval100_unlim_fbal_cfim50_results.xlsx
+++ b/build2.7_260206/results/標準/2.7b_data2022_import4_wval100_unlim_fbal_cfim50_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikiyo\OneDrive\MAFF_2025\workspace simul\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F64EEFF-F791-40FD-881A-AD9D655C4E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126FF117-25F8-42AC-B272-7C3FD0266FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2880" windowWidth="19200" windowHeight="11170" firstSheet="2" activeTab="7" xr2:uid="{9384D4C8-ED4A-4380-A260-6AD98907B3C7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="7" xr2:uid="{59E3B9ED-8196-4727-98AF-C4F8BA5816A2}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E18072-477C-49EC-8FB7-3A459A9357B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1BF74-B667-4EB9-8D6A-D54402C70BBA}">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1374,11 +1374,17 @@
       <c r="C35">
         <v>66.400000000000006</v>
       </c>
+      <c r="D35">
+        <v>1.4105556681109319</v>
+      </c>
       <c r="E35">
         <v>241.4</v>
       </c>
+      <c r="F35">
+        <v>5.1292933385852058</v>
+      </c>
       <c r="G35">
-        <v>-241.4</v>
+        <v>-236.27070666141481</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1461,16 +1467,16 @@
         <v>1471.1000000000006</v>
       </c>
       <c r="D39">
-        <v>1220.9299626956683</v>
+        <v>1222.3405183637792</v>
       </c>
       <c r="E39">
         <v>806.59999999999991</v>
       </c>
       <c r="F39">
-        <v>378.90097034247538</v>
+        <v>384.03026368106066</v>
       </c>
       <c r="G39">
-        <v>-427.69902965752459</v>
+        <v>-422.56973631893942</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1851,7 +1857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2EC275-9896-4E63-BB07-B5FE99F4ABB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7108FA5C-CC88-4FF1-9AE2-2243A93BB9D0}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2317,7 +2323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D777AA0-F86B-48AB-918D-6091954D4F95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799ABEA2-6250-489B-AEF1-BA867DD42C34}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2744,7 +2750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930EA234-1278-4357-B85B-3F40DFC9B1E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C2815D-6BA5-4B5F-814A-6E40A0D43BBC}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2874,13 +2880,13 @@
         <v>2461.5000000000014</v>
       </c>
       <c r="E6">
-        <v>1551.8019386985545</v>
+        <v>1553.2124943666656</v>
       </c>
       <c r="F6">
-        <v>-605.98357550712831</v>
+        <v>-604.57301983901721</v>
       </c>
       <c r="G6">
-        <v>71.916412844665842</v>
+        <v>71.981783367306974</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2897,13 +2903,13 @@
         <v>92.90000000000002</v>
       </c>
       <c r="E7">
-        <v>58.974360544159943</v>
+        <v>59.035912064222963</v>
       </c>
       <c r="F7">
-        <v>-11.153830332190616</v>
+        <v>-11.092278812127596</v>
       </c>
       <c r="G7">
-        <v>84.095083314131188</v>
+        <v>84.182853324014303</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2920,13 +2926,13 @@
         <v>60.9</v>
       </c>
       <c r="E8">
-        <v>24.462311648697494</v>
+        <v>24.472570235374661</v>
       </c>
       <c r="F8">
-        <v>-40.271253777472978</v>
+        <v>-40.260995190795811</v>
       </c>
       <c r="G8">
-        <v>37.789223392301942</v>
+        <v>37.805070791730088</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2943,13 +2949,13 @@
         <v>299.09999999999997</v>
       </c>
       <c r="E9">
-        <v>257.14956278083508</v>
+        <v>257.41756835777619</v>
       </c>
       <c r="F9">
-        <v>-66.518264350017262</v>
+        <v>-66.250258773076155</v>
       </c>
       <c r="G9">
-        <v>79.448601691534421</v>
+        <v>79.531404353546534</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3051,7 +3057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042C8046-22E8-492E-BDA2-D6541F43640A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94DC4CB-9E17-402E-8036-D25122CA1C09}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3318,8 +3324,14 @@
       <c r="C15">
         <v>241.4</v>
       </c>
+      <c r="D15">
+        <v>5.1292933385852058</v>
+      </c>
+      <c r="E15">
+        <v>2.124810827914335</v>
+      </c>
       <c r="F15">
-        <v>-241.4</v>
+        <v>-236.27070666141481</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3645,7 +3657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62695927-610A-402B-8D82-D1738C501C93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BF4FFE-0A1F-4BFA-9981-61078EE66C21}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3991,6 +4003,9 @@
       <c r="P11">
         <v>765.76700000000005</v>
       </c>
+      <c r="S11">
+        <v>10.434000000000061</v>
+      </c>
       <c r="T11">
         <v>36.200000000000003</v>
       </c>
@@ -6052,7 +6067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD45542F-5F4F-480C-8ACA-DA54F7C6B01F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4498D53C-D369-443F-81B1-F18D65585E46}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6214,6 +6229,9 @@
       <c r="O3">
         <v>4.2882951999999912E-2</v>
       </c>
+      <c r="R3">
+        <v>8.5037100000000341E-3</v>
+      </c>
       <c r="S3">
         <v>9.665399999999981E-2</v>
       </c>
@@ -6236,7 +6254,7 @@
         <v>1.380221309684513E-2</v>
       </c>
       <c r="AF3">
-        <v>1.3778605463050813</v>
+        <v>1.3863642563050813</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6385,7 +6403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBE6F5C-AF6F-4666-AC2D-BA898DE66C63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7193E969-8FEF-4256-AA3C-722E7638CF3F}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6608,6 +6626,9 @@
       <c r="P5">
         <v>26036.077999999998</v>
       </c>
+      <c r="S5">
+        <v>2869.3500000000167</v>
+      </c>
       <c r="T5">
         <v>7891.6</v>
       </c>
@@ -6624,7 +6645,7 @@
         <v>8864</v>
       </c>
       <c r="Z5">
-        <v>412024.88386399992</v>
+        <v>414894.23386399995</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -6646,6 +6667,9 @@
       <c r="P6">
         <v>70450.563999999998</v>
       </c>
+      <c r="S6">
+        <v>1721.6100000000101</v>
+      </c>
       <c r="T6">
         <v>4850.8</v>
       </c>
@@ -6662,7 +6686,7 @@
         <v>13850</v>
       </c>
       <c r="Z6">
-        <v>517211.87162400002</v>
+        <v>518933.48162400001</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -6684,6 +6708,9 @@
       <c r="P7">
         <v>66621.728999999992</v>
       </c>
+      <c r="S7">
+        <v>2744.1420000000162</v>
+      </c>
       <c r="T7">
         <v>5647.2000000000007</v>
       </c>
@@ -6700,7 +6727,7 @@
         <v>8864</v>
       </c>
       <c r="Z7">
-        <v>475565.32767199993</v>
+        <v>478309.46967199992</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
